--- a/data-parser/out.xlsx
+++ b/data-parser/out.xlsx
@@ -15,7 +15,6 @@
     <sheet name="out" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -781,15 +780,15 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
+          <c:idx val="15"/>
+          <c:order val="15"/>
           <c:tx>
             <c:strRef>
-              <c:f>out!$BB$105</c:f>
+              <c:f>out!$BH$105</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Inner Richmond</c:v>
+                  <c:v>Marina</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -797,94 +796,6 @@
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent4">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>out!$AR$106:$AR$124</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(out!$AR$110,out!$AR$113,out!$AR$115:$AR$116,out!$AR$119)</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>failsignrenew</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ownermovein</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>capitalimprovement</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>substantialrehab</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>roommatesameunit</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>out!$BB$106:$BB$124</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(out!$BB$110,out!$BB$113,out!$BB$115:$BB$116,out!$BB$119)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2.6178009999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.26701570699999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.1884816999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.3560208999999999E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="14"/>
-          <c:order val="14"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>out!$BG$105</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Lone Mountain/USF</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3">
                 <a:lumMod val="80000"/>
                 <a:lumOff val="20000"/>
               </a:schemeClr>
@@ -904,23 +815,20 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(out!$AR$110,out!$AR$113,out!$AR$115:$AR$116,out!$AR$119)</c:f>
+              <c:f>(out!$AR$106:$AR$108,out!$AR$121)</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>failsignrenew</c:v>
+                  <c:v>nonpayment</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ownermovein</c:v>
+                  <c:v>breach</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>capitalimprovement</c:v>
+                  <c:v>nuisance</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>substantialrehab</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>roommatesameunit</c:v>
+                  <c:v>latepay</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -930,50 +838,47 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>out!$BG$106:$BG$124</c15:sqref>
+                    <c15:sqref>out!$BH$106:$BH$124</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(out!$BG$110,out!$BG$113,out!$BG$115:$BG$116,out!$BG$119)</c:f>
+              <c:f>(out!$BH$106:$BH$108,out!$BH$121)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3.3898309999999998E-3</c:v>
+                  <c:v>3.1578947000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.18305084699999999</c:v>
+                  <c:v>0.35578947399999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.4067796999999999E-2</c:v>
+                  <c:v>0.218947368</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.7288136E-2</c:v>
+                  <c:v>3.3684210999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="24"/>
-          <c:order val="24"/>
+          <c:idx val="25"/>
+          <c:order val="25"/>
           <c:tx>
             <c:strRef>
-              <c:f>out!$BQ$105</c:f>
+              <c:f>out!$BR$105</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Outer Richmond</c:v>
+                  <c:v>Pacific Heights</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1">
+              <a:schemeClr val="accent2">
                 <a:lumMod val="60000"/>
                 <a:lumOff val="40000"/>
               </a:schemeClr>
@@ -993,23 +898,20 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(out!$AR$110,out!$AR$113,out!$AR$115:$AR$116,out!$AR$119)</c:f>
+              <c:f>(out!$AR$106:$AR$108,out!$AR$121)</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>failsignrenew</c:v>
+                  <c:v>nonpayment</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ownermovein</c:v>
+                  <c:v>breach</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>capitalimprovement</c:v>
+                  <c:v>nuisance</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>substantialrehab</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>roommatesameunit</c:v>
+                  <c:v>latepay</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1019,28 +921,191 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>out!$BQ$106:$BQ$124</c15:sqref>
+                    <c15:sqref>out!$BR$106:$BR$124</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(out!$BQ$110,out!$BQ$113,out!$BQ$115:$BQ$116,out!$BQ$119)</c:f>
+              <c:f>(out!$BR$106:$BR$108,out!$BR$121)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.2033689999999999E-3</c:v>
+                  <c:v>0.10721649499999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.20216606500000001</c:v>
+                  <c:v>0.31340206199999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0457280000000001E-2</c:v>
+                  <c:v>0.15876288699999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>5.1546392000000003E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.3237064E-2</c:v>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="28"/>
+          <c:order val="28"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>out!$BU$105</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Presidio Heights</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>out!$AR$106:$AR$124</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(out!$AR$106:$AR$108,out!$AR$121)</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>nonpayment</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>breach</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>nuisance</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>latepay</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>out!$BU$106:$BU$124</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(out!$BU$106:$BU$108,out!$BU$121)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5.9171597999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18934911200000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.142011834</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.6923077000000006E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="29"/>
+          <c:order val="29"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>out!$BV$105</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Russian Hill</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>out!$AR$106:$AR$124</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(out!$AR$106:$AR$108,out!$AR$121)</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>nonpayment</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>breach</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>nuisance</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>latepay</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>out!$BV$106:$BV$124</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(out!$BV$106:$BV$108,out!$BV$121)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.3062201000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.30861243999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12918660300000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1100478000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1055,8 +1120,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="231729680"/>
-        <c:axId val="231730240"/>
+        <c:axId val="173611280"/>
+        <c:axId val="173611840"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -1098,26 +1163,23 @@
                           <c15:sqref>out!$AR$106:$AR$124</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(out!$AR$110,out!$AR$113,out!$AR$115:$AR$116,out!$AR$119)</c15:sqref>
+                          <c15:sqref>(out!$AR$106:$AR$108,out!$AR$121)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
-                        <c:v>failsignrenew</c:v>
+                        <c:v>nonpayment</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>ownermovein</c:v>
+                        <c:v>breach</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>capitalimprovement</c:v>
+                        <c:v>nuisance</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>substantialrehab</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>roommatesameunit</c:v>
+                        <c:v>latepay</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -1130,27 +1192,24 @@
                           <c15:sqref>out!$AS$106:$AS$124</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(out!$AS$110,out!$AS$113,out!$AS$115:$AS$116,out!$AS$119)</c15:sqref>
+                          <c15:sqref>(out!$AS$106:$AS$108,out!$AS$121)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
-                        <c:v>2.2312373E-2</c:v>
+                        <c:v>0.16430020300000001</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>6.2880325000000001E-2</c:v>
+                        <c:v>0.23732251500000001</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>6.085193E-3</c:v>
+                        <c:v>0.16835699800000001</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>2.4340771000000001E-2</c:v>
+                        <c:v>6.0851927E-2</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1163,7 +1222,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>out!$AT$105</c15:sqref>
@@ -1196,26 +1255,23 @@
                           <c15:sqref>out!$AR$106:$AR$124</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(out!$AR$110,out!$AR$113,out!$AR$115:$AR$116,out!$AR$119)</c15:sqref>
+                          <c15:sqref>(out!$AR$106:$AR$108,out!$AR$121)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
-                        <c:v>failsignrenew</c:v>
+                        <c:v>nonpayment</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>ownermovein</c:v>
+                        <c:v>breach</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>capitalimprovement</c:v>
+                        <c:v>nuisance</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>substantialrehab</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>roommatesameunit</c:v>
+                        <c:v>latepay</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -1228,27 +1284,24 @@
                           <c15:sqref>out!$AT$106:$AT$124</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(out!$AT$110,out!$AT$113,out!$AT$115:$AT$116,out!$AT$119)</c15:sqref>
+                          <c15:sqref>(out!$AT$106:$AT$108,out!$AT$121)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
-                        <c:v>0</c:v>
+                        <c:v>4.6082948999999998E-2</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0.230414747</c:v>
+                        <c:v>0.168202765</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>3.2258065000000002E-2</c:v>
+                        <c:v>0.1359447</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>1.3824885E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>4.6082948999999998E-2</c:v>
+                        <c:v>4.8387096999999997E-2</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1261,7 +1314,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>out!$AU$105</c15:sqref>
@@ -1294,26 +1347,23 @@
                           <c15:sqref>out!$AR$106:$AR$124</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(out!$AR$110,out!$AR$113,out!$AR$115:$AR$116,out!$AR$119)</c15:sqref>
+                          <c15:sqref>(out!$AR$106:$AR$108,out!$AR$121)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
-                        <c:v>failsignrenew</c:v>
+                        <c:v>nonpayment</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>ownermovein</c:v>
+                        <c:v>breach</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>capitalimprovement</c:v>
+                        <c:v>nuisance</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>substantialrehab</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>roommatesameunit</c:v>
+                        <c:v>latepay</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -1326,27 +1376,24 @@
                           <c15:sqref>out!$AU$106:$AU$124</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(out!$AU$110,out!$AU$113,out!$AU$115:$AU$116,out!$AU$119)</c15:sqref>
+                          <c15:sqref>(out!$AU$106:$AU$108,out!$AU$121)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
-                        <c:v>1.3458949999999999E-3</c:v>
+                        <c:v>4.3068640999999998E-2</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0.123822342</c:v>
+                        <c:v>0.258411844</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>3.6339165999999999E-2</c:v>
+                        <c:v>0.13593539700000001</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>4.0376850000000001E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>2.8263795000000001E-2</c:v>
+                        <c:v>6.0565276000000001E-2</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1359,7 +1406,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>out!$AV$105</c15:sqref>
@@ -1392,26 +1439,23 @@
                           <c15:sqref>out!$AR$106:$AR$124</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(out!$AR$110,out!$AR$113,out!$AR$115:$AR$116,out!$AR$119)</c15:sqref>
+                          <c15:sqref>(out!$AR$106:$AR$108,out!$AR$121)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
-                        <c:v>failsignrenew</c:v>
+                        <c:v>nonpayment</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>ownermovein</c:v>
+                        <c:v>breach</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>capitalimprovement</c:v>
+                        <c:v>nuisance</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>substantialrehab</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>roommatesameunit</c:v>
+                        <c:v>latepay</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -1424,27 +1468,24 @@
                           <c15:sqref>out!$AV$106:$AV$124</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(out!$AV$110,out!$AV$113,out!$AV$115:$AV$116,out!$AV$119)</c15:sqref>
+                          <c15:sqref>(out!$AV$106:$AV$108,out!$AV$121)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
-                        <c:v>0</c:v>
+                        <c:v>9.4339622999999997E-2</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>2.3584905999999999E-2</c:v>
+                        <c:v>0.20754717</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>0.18396226399999999</c:v>
+                        <c:v>0.25471698100000001</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>9.4339620000000006E-3</c:v>
+                        <c:v>3.7735849000000002E-2</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1457,7 +1498,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>out!$AW$105</c15:sqref>
@@ -1490,26 +1531,23 @@
                           <c15:sqref>out!$AR$106:$AR$124</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(out!$AR$110,out!$AR$113,out!$AR$115:$AR$116,out!$AR$119)</c15:sqref>
+                          <c15:sqref>(out!$AR$106:$AR$108,out!$AR$121)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
-                        <c:v>failsignrenew</c:v>
+                        <c:v>nonpayment</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>ownermovein</c:v>
+                        <c:v>breach</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>capitalimprovement</c:v>
+                        <c:v>nuisance</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>substantialrehab</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>roommatesameunit</c:v>
+                        <c:v>latepay</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -1522,26 +1560,23 @@
                           <c15:sqref>out!$AW$106:$AW$124</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(out!$AW$110,out!$AW$113,out!$AW$115:$AW$116,out!$AW$119)</c15:sqref>
+                          <c15:sqref>(out!$AW$106:$AW$108,out!$AW$121)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
-                        <c:v>8.1799590000000005E-3</c:v>
+                        <c:v>9.6114518999999995E-2</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0.134969325</c:v>
+                        <c:v>0.255623722</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1.8404908000000001E-2</c:v>
+                        <c:v>0.100204499</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
                         <c:v>5.7259714000000003E-2</c:v>
                       </c:pt>
                     </c:numCache>
@@ -1555,7 +1590,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>out!$AX$105</c15:sqref>
@@ -1588,26 +1623,23 @@
                           <c15:sqref>out!$AR$106:$AR$124</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(out!$AR$110,out!$AR$113,out!$AR$115:$AR$116,out!$AR$119)</c15:sqref>
+                          <c15:sqref>(out!$AR$106:$AR$108,out!$AR$121)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
-                        <c:v>failsignrenew</c:v>
+                        <c:v>nonpayment</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>ownermovein</c:v>
+                        <c:v>breach</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>capitalimprovement</c:v>
+                        <c:v>nuisance</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>substantialrehab</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>roommatesameunit</c:v>
+                        <c:v>latepay</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -1620,27 +1652,24 @@
                           <c15:sqref>out!$AX$106:$AX$124</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(out!$AX$110,out!$AX$113,out!$AX$115:$AX$116,out!$AX$119)</c15:sqref>
+                          <c15:sqref>(out!$AX$106:$AX$108,out!$AX$121)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
-                        <c:v>0</c:v>
+                        <c:v>9.8360656000000005E-2</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>8.1967210000000006E-3</c:v>
+                        <c:v>0.38524590199999997</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>8.1967210000000006E-3</c:v>
+                        <c:v>0.24590163900000001</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>0</c:v>
+                        <c:v>4.0983606999999998E-2</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1653,7 +1682,7 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>out!$AY$105</c15:sqref>
@@ -1688,26 +1717,23 @@
                           <c15:sqref>out!$AR$106:$AR$124</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(out!$AR$110,out!$AR$113,out!$AR$115:$AR$116,out!$AR$119)</c15:sqref>
+                          <c15:sqref>(out!$AR$106:$AR$108,out!$AR$121)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
-                        <c:v>failsignrenew</c:v>
+                        <c:v>nonpayment</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>ownermovein</c:v>
+                        <c:v>breach</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>capitalimprovement</c:v>
+                        <c:v>nuisance</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>substantialrehab</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>roommatesameunit</c:v>
+                        <c:v>latepay</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -1720,27 +1746,24 @@
                           <c15:sqref>out!$AY$106:$AY$124</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(out!$AY$110,out!$AY$113,out!$AY$115:$AY$116,out!$AY$119)</c15:sqref>
+                          <c15:sqref>(out!$AY$106:$AY$108,out!$AY$121)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
-                        <c:v>0</c:v>
+                        <c:v>4.7619047999999997E-2</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0.35714285699999998</c:v>
+                        <c:v>0.10714285699999999</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>3.5714285999999998E-2</c:v>
+                        <c:v>0.10714285699999999</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>4.7619047999999997E-2</c:v>
+                        <c:v>1.1904761999999999E-2</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1753,7 +1776,7 @@
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>out!$AZ$105</c15:sqref>
@@ -1788,26 +1811,23 @@
                           <c15:sqref>out!$AR$106:$AR$124</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(out!$AR$110,out!$AR$113,out!$AR$115:$AR$116,out!$AR$119)</c15:sqref>
+                          <c15:sqref>(out!$AR$106:$AR$108,out!$AR$121)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
-                        <c:v>failsignrenew</c:v>
+                        <c:v>nonpayment</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>ownermovein</c:v>
+                        <c:v>breach</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>capitalimprovement</c:v>
+                        <c:v>nuisance</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>substantialrehab</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>roommatesameunit</c:v>
+                        <c:v>latepay</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -1820,27 +1840,24 @@
                           <c15:sqref>out!$AZ$106:$AZ$124</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(out!$AZ$110,out!$AZ$113,out!$AZ$115:$AZ$116,out!$AZ$119)</c15:sqref>
+                          <c15:sqref>(out!$AZ$106:$AZ$108,out!$AZ$121)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
-                        <c:v>6.1983469999999999E-3</c:v>
+                        <c:v>2.6859503999999999E-2</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0.16942148800000001</c:v>
+                        <c:v>0.23553719000000001</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>8.4710744000000004E-2</c:v>
+                        <c:v>0.17768595000000001</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>4.3388429999999999E-2</c:v>
+                        <c:v>5.1652892999999998E-2</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1853,7 +1870,7 @@
                 <c:order val="8"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>out!$BA$105</c15:sqref>
@@ -1888,26 +1905,23 @@
                           <c15:sqref>out!$AR$106:$AR$124</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(out!$AR$110,out!$AR$113,out!$AR$115:$AR$116,out!$AR$119)</c15:sqref>
+                          <c15:sqref>(out!$AR$106:$AR$108,out!$AR$121)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
-                        <c:v>failsignrenew</c:v>
+                        <c:v>nonpayment</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>ownermovein</c:v>
+                        <c:v>breach</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>capitalimprovement</c:v>
+                        <c:v>nuisance</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>substantialrehab</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>roommatesameunit</c:v>
+                        <c:v>latepay</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -1920,27 +1934,118 @@
                           <c15:sqref>out!$BA$106:$BA$124</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(out!$BA$110,out!$BA$113,out!$BA$115:$BA$116,out!$BA$119)</c15:sqref>
+                          <c15:sqref>(out!$BA$106:$BA$108,out!$BA$121)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
-                        <c:v>3.6832409999999999E-3</c:v>
+                        <c:v>8.4714549E-2</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>8.1031307999999996E-2</c:v>
+                        <c:v>0.32965009200000001</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>9.2081030000000005E-3</c:v>
+                        <c:v>0.211786372</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>1.8416210000000001E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>2.3941067999999999E-2</c:v>
+                        <c:v>7.3664825000000003E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="9"/>
+                <c:order val="9"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>out!$BB$105</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Inner Richmond</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>out!$AR$106:$AR$124</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(out!$AR$106:$AR$108,out!$AR$121)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>nonpayment</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>breach</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>nuisance</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>latepay</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>out!$BB$106:$BB$124</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(out!$BB$106:$BB$108,out!$BB$121)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>3.1413613E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.23821989499999999</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.15968586400000001</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2.8795812E-2</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1953,7 +2058,7 @@
                 <c:order val="10"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>out!$BC$105</c15:sqref>
@@ -1988,26 +2093,23 @@
                           <c15:sqref>out!$AR$106:$AR$124</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(out!$AR$110,out!$AR$113,out!$AR$115:$AR$116,out!$AR$119)</c15:sqref>
+                          <c15:sqref>(out!$AR$106:$AR$108,out!$AR$121)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
-                        <c:v>failsignrenew</c:v>
+                        <c:v>nonpayment</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>ownermovein</c:v>
+                        <c:v>breach</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>capitalimprovement</c:v>
+                        <c:v>nuisance</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>substantialrehab</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>roommatesameunit</c:v>
+                        <c:v>latepay</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -2020,27 +2122,24 @@
                           <c15:sqref>out!$BC$106:$BC$124</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(out!$BC$110,out!$BC$113,out!$BC$115:$BC$116,out!$BC$119)</c15:sqref>
+                          <c15:sqref>(out!$BC$106:$BC$108,out!$BC$121)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
-                        <c:v>0</c:v>
+                        <c:v>7.3068893999999995E-2</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0.17745302700000001</c:v>
+                        <c:v>0.25052192099999998</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1.2526096E-2</c:v>
+                        <c:v>0.181628392</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>2.5052192000000001E-2</c:v>
+                        <c:v>4.5929019000000001E-2</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2053,7 +2152,7 @@
                 <c:order val="11"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>out!$BD$105</c15:sqref>
@@ -2088,26 +2187,23 @@
                           <c15:sqref>out!$AR$106:$AR$124</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(out!$AR$110,out!$AR$113,out!$AR$115:$AR$116,out!$AR$119)</c15:sqref>
+                          <c15:sqref>(out!$AR$106:$AR$108,out!$AR$121)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
-                        <c:v>failsignrenew</c:v>
+                        <c:v>nonpayment</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>ownermovein</c:v>
+                        <c:v>breach</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>capitalimprovement</c:v>
+                        <c:v>nuisance</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>substantialrehab</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>roommatesameunit</c:v>
+                        <c:v>latepay</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -2120,27 +2216,24 @@
                           <c15:sqref>out!$BD$106:$BD$124</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(out!$BD$110,out!$BD$113,out!$BD$115:$BD$116,out!$BD$119)</c15:sqref>
+                          <c15:sqref>(out!$BD$106:$BD$108,out!$BD$121)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
-                        <c:v>0</c:v>
+                        <c:v>0.14285714299999999</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>7.1428570999999996E-2</c:v>
+                        <c:v>0.35714285699999998</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>0</c:v>
+                        <c:v>0.21428571399999999</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>0</c:v>
+                        <c:v>0.14285714299999999</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2153,7 +2246,7 @@
                 <c:order val="12"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>out!$BE$105</c15:sqref>
@@ -2189,26 +2282,23 @@
                           <c15:sqref>out!$AR$106:$AR$124</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(out!$AR$110,out!$AR$113,out!$AR$115:$AR$116,out!$AR$119)</c15:sqref>
+                          <c15:sqref>(out!$AR$106:$AR$108,out!$AR$121)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
-                        <c:v>failsignrenew</c:v>
+                        <c:v>nonpayment</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>ownermovein</c:v>
+                        <c:v>breach</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>capitalimprovement</c:v>
+                        <c:v>nuisance</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>substantialrehab</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>roommatesameunit</c:v>
+                        <c:v>latepay</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -2221,27 +2311,24 @@
                           <c15:sqref>out!$BE$106:$BE$124</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(out!$BE$110,out!$BE$113,out!$BE$115:$BE$116,out!$BE$119)</c15:sqref>
+                          <c15:sqref>(out!$BE$106:$BE$108,out!$BE$121)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
-                        <c:v>0</c:v>
+                        <c:v>1.4662760000000001E-3</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0</c:v>
+                        <c:v>0.89882697899999997</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>0</c:v>
+                        <c:v>9.2375367E-2</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>1.4662760000000001E-3</c:v>
+                        <c:v>4.3988270000000001E-3</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2254,7 +2341,7 @@
                 <c:order val="13"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>out!$BF$105</c15:sqref>
@@ -2290,26 +2377,23 @@
                           <c15:sqref>out!$AR$106:$AR$124</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(out!$AR$110,out!$AR$113,out!$AR$115:$AR$116,out!$AR$119)</c15:sqref>
+                          <c15:sqref>(out!$AR$106:$AR$108,out!$AR$121)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
-                        <c:v>failsignrenew</c:v>
+                        <c:v>nonpayment</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>ownermovein</c:v>
+                        <c:v>breach</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>capitalimprovement</c:v>
+                        <c:v>nuisance</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>substantialrehab</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>roommatesameunit</c:v>
+                        <c:v>latepay</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -2322,26 +2406,23 @@
                           <c15:sqref>out!$BF$106:$BF$124</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(out!$BF$110,out!$BF$113,out!$BF$115:$BF$116,out!$BF$119)</c15:sqref>
+                          <c15:sqref>(out!$BF$106:$BF$108,out!$BF$121)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0</c:v>
+                        <c:v>0.18181818199999999</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>9.0909090999999997E-2</c:v>
+                        <c:v>0.27272727299999999</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
                         <c:v>0</c:v>
                       </c:pt>
                     </c:numCache>
@@ -2351,28 +2432,28 @@
             </c15:filteredBarSeries>
             <c15:filteredBarSeries>
               <c15:ser>
-                <c:idx val="15"/>
-                <c:order val="15"/>
+                <c:idx val="14"/>
+                <c:order val="14"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>out!$BH$105</c15:sqref>
+                          <c15:sqref>out!$BG$105</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Marina</c:v>
+                        <c:v>Lone Mountain/USF</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
                   <a:solidFill>
-                    <a:schemeClr val="accent4">
+                    <a:schemeClr val="accent3">
                       <a:lumMod val="80000"/>
                       <a:lumOff val="20000"/>
                     </a:schemeClr>
@@ -2391,26 +2472,23 @@
                           <c15:sqref>out!$AR$106:$AR$124</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(out!$AR$110,out!$AR$113,out!$AR$115:$AR$116,out!$AR$119)</c15:sqref>
+                          <c15:sqref>(out!$AR$106:$AR$108,out!$AR$121)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
-                        <c:v>failsignrenew</c:v>
+                        <c:v>nonpayment</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>ownermovein</c:v>
+                        <c:v>breach</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>capitalimprovement</c:v>
+                        <c:v>nuisance</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>substantialrehab</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>roommatesameunit</c:v>
+                        <c:v>latepay</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -2420,30 +2498,27 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>out!$BH$106:$BH$124</c15:sqref>
+                          <c15:sqref>out!$BG$106:$BG$124</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(out!$BH$110,out!$BH$113,out!$BH$115:$BH$116,out!$BH$119)</c15:sqref>
+                          <c15:sqref>(out!$BG$106:$BG$108,out!$BG$121)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
-                        <c:v>0</c:v>
+                        <c:v>4.4067796999999999E-2</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0.164210526</c:v>
+                        <c:v>0.25762711900000002</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>0.04</c:v>
+                        <c:v>0.18983050800000001</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>1.6842105E-2</c:v>
+                        <c:v>5.0847457999999998E-2</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2456,7 +2531,7 @@
                 <c:order val="16"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>out!$BI$105</c15:sqref>
@@ -2492,26 +2567,23 @@
                           <c15:sqref>out!$AR$106:$AR$124</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(out!$AR$110,out!$AR$113,out!$AR$115:$AR$116,out!$AR$119)</c15:sqref>
+                          <c15:sqref>(out!$AR$106:$AR$108,out!$AR$121)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
-                        <c:v>failsignrenew</c:v>
+                        <c:v>nonpayment</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>ownermovein</c:v>
+                        <c:v>breach</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>capitalimprovement</c:v>
+                        <c:v>nuisance</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>substantialrehab</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>roommatesameunit</c:v>
+                        <c:v>latepay</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -2524,26 +2596,23 @@
                           <c15:sqref>out!$BI$106:$BI$124</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(out!$BI$110,out!$BI$113,out!$BI$115:$BI$116,out!$BI$119)</c15:sqref>
+                          <c15:sqref>(out!$BI$106:$BI$108,out!$BI$121)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
-                        <c:v>0</c:v>
+                        <c:v>0.55555555599999995</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0</c:v>
+                        <c:v>0.222222222</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>0</c:v>
+                        <c:v>0.111111111</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
                         <c:v>0</c:v>
                       </c:pt>
                     </c:numCache>
@@ -2557,7 +2626,7 @@
                 <c:order val="17"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>out!$BJ$105</c15:sqref>
@@ -2593,26 +2662,23 @@
                           <c15:sqref>out!$AR$106:$AR$124</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(out!$AR$110,out!$AR$113,out!$AR$115:$AR$116,out!$AR$119)</c15:sqref>
+                          <c15:sqref>(out!$AR$106:$AR$108,out!$AR$121)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
-                        <c:v>failsignrenew</c:v>
+                        <c:v>nonpayment</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>ownermovein</c:v>
+                        <c:v>breach</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>capitalimprovement</c:v>
+                        <c:v>nuisance</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>substantialrehab</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>roommatesameunit</c:v>
+                        <c:v>latepay</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -2625,27 +2691,24 @@
                           <c15:sqref>out!$BJ$106:$BJ$124</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(out!$BJ$110,out!$BJ$113,out!$BJ$115:$BJ$116,out!$BJ$119)</c15:sqref>
+                          <c15:sqref>(out!$BJ$106:$BJ$108,out!$BJ$121)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
-                        <c:v>1.099505E-3</c:v>
+                        <c:v>5.8823528999999999E-2</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0.123694338</c:v>
+                        <c:v>0.24134139600000001</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>2.6937877999999998E-2</c:v>
+                        <c:v>0.206157229</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>2.0890598999999999E-2</c:v>
+                        <c:v>4.2330950999999999E-2</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2658,7 +2721,7 @@
                 <c:order val="18"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>out!$BK$105</c15:sqref>
@@ -2693,26 +2756,23 @@
                           <c15:sqref>out!$AR$106:$AR$124</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(out!$AR$110,out!$AR$113,out!$AR$115:$AR$116,out!$AR$119)</c15:sqref>
+                          <c15:sqref>(out!$AR$106:$AR$108,out!$AR$121)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
-                        <c:v>failsignrenew</c:v>
+                        <c:v>nonpayment</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>ownermovein</c:v>
+                        <c:v>breach</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>capitalimprovement</c:v>
+                        <c:v>nuisance</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>substantialrehab</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>roommatesameunit</c:v>
+                        <c:v>latepay</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -2725,27 +2785,24 @@
                           <c15:sqref>out!$BK$106:$BK$124</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(out!$BK$110,out!$BK$113,out!$BK$115:$BK$116,out!$BK$119)</c15:sqref>
+                          <c15:sqref>(out!$BK$106:$BK$108,out!$BK$121)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
-                        <c:v>0</c:v>
+                        <c:v>0.375</c:v>
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>6.25E-2</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>0</c:v>
+                        <c:v>0.25</c:v>
                       </c:pt>
                       <c:pt idx="3">
                         <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>6.25E-2</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2758,7 +2815,7 @@
                 <c:order val="19"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>out!$BL$105</c15:sqref>
@@ -2793,26 +2850,23 @@
                           <c15:sqref>out!$AR$106:$AR$124</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(out!$AR$110,out!$AR$113,out!$AR$115:$AR$116,out!$AR$119)</c15:sqref>
+                          <c15:sqref>(out!$AR$106:$AR$108,out!$AR$121)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
-                        <c:v>failsignrenew</c:v>
+                        <c:v>nonpayment</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>ownermovein</c:v>
+                        <c:v>breach</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>capitalimprovement</c:v>
+                        <c:v>nuisance</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>substantialrehab</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>roommatesameunit</c:v>
+                        <c:v>latepay</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -2825,27 +2879,24 @@
                           <c15:sqref>out!$BL$106:$BL$124</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(out!$BL$110,out!$BL$113,out!$BL$115:$BL$116,out!$BL$119)</c15:sqref>
+                          <c15:sqref>(out!$BL$106:$BL$108,out!$BL$121)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
-                        <c:v>1.52439E-3</c:v>
+                        <c:v>6.402439E-2</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>6.402439E-2</c:v>
+                        <c:v>0.271341463</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>4.5731707000000003E-2</c:v>
+                        <c:v>0.24237804900000001</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>3.0487800000000001E-3</c:v>
+                        <c:v>4.2682927000000002E-2</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2858,7 +2909,7 @@
                 <c:order val="20"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>out!$BM$105</c15:sqref>
@@ -2893,26 +2944,23 @@
                           <c15:sqref>out!$AR$106:$AR$124</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(out!$AR$110,out!$AR$113,out!$AR$115:$AR$116,out!$AR$119)</c15:sqref>
+                          <c15:sqref>(out!$AR$106:$AR$108,out!$AR$121)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
-                        <c:v>failsignrenew</c:v>
+                        <c:v>nonpayment</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>ownermovein</c:v>
+                        <c:v>breach</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>capitalimprovement</c:v>
+                        <c:v>nuisance</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>substantialrehab</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>roommatesameunit</c:v>
+                        <c:v>latepay</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -2925,27 +2973,24 @@
                           <c15:sqref>out!$BM$106:$BM$124</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(out!$BM$110,out!$BM$113,out!$BM$115:$BM$116,out!$BM$119)</c15:sqref>
+                          <c15:sqref>(out!$BM$106:$BM$108,out!$BM$121)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
-                        <c:v>4.4843050000000001E-3</c:v>
+                        <c:v>5.8295963999999999E-2</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0.210762332</c:v>
+                        <c:v>0.27578475299999999</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>2.4663676999999998E-2</c:v>
+                        <c:v>0.11883408099999999</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>2.9147981999999999E-2</c:v>
+                        <c:v>4.0358744000000002E-2</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2958,7 +3003,7 @@
                 <c:order val="21"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>out!$BN$105</c15:sqref>
@@ -2993,26 +3038,23 @@
                           <c15:sqref>out!$AR$106:$AR$124</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(out!$AR$110,out!$AR$113,out!$AR$115:$AR$116,out!$AR$119)</c15:sqref>
+                          <c15:sqref>(out!$AR$106:$AR$108,out!$AR$121)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
-                        <c:v>failsignrenew</c:v>
+                        <c:v>nonpayment</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>ownermovein</c:v>
+                        <c:v>breach</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>capitalimprovement</c:v>
+                        <c:v>nuisance</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>substantialrehab</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>roommatesameunit</c:v>
+                        <c:v>latepay</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -3025,27 +3067,24 @@
                           <c15:sqref>out!$BN$106:$BN$124</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(out!$BN$110,out!$BN$113,out!$BN$115:$BN$116,out!$BN$119)</c15:sqref>
+                          <c15:sqref>(out!$BN$106:$BN$108,out!$BN$121)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
-                        <c:v>1.5151515000000001E-2</c:v>
+                        <c:v>4.0404040000000002E-2</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>7.0707070999999996E-2</c:v>
+                        <c:v>0.287878788</c:v>
                       </c:pt>
                       <c:pt idx="2">
+                        <c:v>0.171717172</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
                         <c:v>3.2828283E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>1.5151515000000001E-2</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3058,7 +3097,7 @@
                 <c:order val="22"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>out!$BO$105</c15:sqref>
@@ -3093,26 +3132,23 @@
                           <c15:sqref>out!$AR$106:$AR$124</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(out!$AR$110,out!$AR$113,out!$AR$115:$AR$116,out!$AR$119)</c15:sqref>
+                          <c15:sqref>(out!$AR$106:$AR$108,out!$AR$121)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
-                        <c:v>failsignrenew</c:v>
+                        <c:v>nonpayment</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>ownermovein</c:v>
+                        <c:v>breach</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>capitalimprovement</c:v>
+                        <c:v>nuisance</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>substantialrehab</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>roommatesameunit</c:v>
+                        <c:v>latepay</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -3125,27 +3161,24 @@
                           <c15:sqref>out!$BO$106:$BO$124</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(out!$BO$110,out!$BO$113,out!$BO$115:$BO$116,out!$BO$119)</c15:sqref>
+                          <c15:sqref>(out!$BO$106:$BO$108,out!$BO$121)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
-                        <c:v>7.7319590000000001E-3</c:v>
+                        <c:v>7.7319587999999995E-2</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0.14432989700000001</c:v>
+                        <c:v>0.26030927799999998</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>7.7319590000000001E-3</c:v>
+                        <c:v>0.12886597899999999</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>3.8659793999999997E-2</c:v>
+                        <c:v>5.9278351E-2</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3158,7 +3191,7 @@
                 <c:order val="23"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>out!$BP$105</c15:sqref>
@@ -3193,26 +3226,23 @@
                           <c15:sqref>out!$AR$106:$AR$124</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(out!$AR$110,out!$AR$113,out!$AR$115:$AR$116,out!$AR$119)</c15:sqref>
+                          <c15:sqref>(out!$AR$106:$AR$108,out!$AR$121)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
-                        <c:v>failsignrenew</c:v>
+                        <c:v>nonpayment</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>ownermovein</c:v>
+                        <c:v>breach</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>capitalimprovement</c:v>
+                        <c:v>nuisance</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>substantialrehab</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>roommatesameunit</c:v>
+                        <c:v>latepay</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -3225,27 +3255,24 @@
                           <c15:sqref>out!$BP$106:$BP$124</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(out!$BP$110,out!$BP$113,out!$BP$115:$BP$116,out!$BP$119)</c15:sqref>
+                          <c15:sqref>(out!$BP$106:$BP$108,out!$BP$121)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
-                        <c:v>3.9840639999999998E-3</c:v>
+                        <c:v>0.103585657</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0.17928286900000001</c:v>
+                        <c:v>0.15537848600000001</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>3.9840639999999998E-3</c:v>
+                        <c:v>0.15537848600000001</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>5.1792828999999999E-2</c:v>
+                        <c:v>7.9681274999999996E-2</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3254,28 +3281,28 @@
             </c15:filteredBarSeries>
             <c15:filteredBarSeries>
               <c15:ser>
-                <c:idx val="25"/>
-                <c:order val="25"/>
+                <c:idx val="24"/>
+                <c:order val="24"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>out!$BR$105</c15:sqref>
+                          <c15:sqref>out!$BQ$105</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Pacific Heights</c:v>
+                        <c:v>Outer Richmond</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
                   <a:solidFill>
-                    <a:schemeClr val="accent2">
+                    <a:schemeClr val="accent1">
                       <a:lumMod val="60000"/>
                       <a:lumOff val="40000"/>
                     </a:schemeClr>
@@ -3294,26 +3321,23 @@
                           <c15:sqref>out!$AR$106:$AR$124</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(out!$AR$110,out!$AR$113,out!$AR$115:$AR$116,out!$AR$119)</c15:sqref>
+                          <c15:sqref>(out!$AR$106:$AR$108,out!$AR$121)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
-                        <c:v>failsignrenew</c:v>
+                        <c:v>nonpayment</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>ownermovein</c:v>
+                        <c:v>breach</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>capitalimprovement</c:v>
+                        <c:v>nuisance</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>substantialrehab</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>roommatesameunit</c:v>
+                        <c:v>latepay</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -3323,30 +3347,27 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>out!$BR$106:$BR$124</c15:sqref>
+                          <c15:sqref>out!$BQ$106:$BQ$124</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(out!$BR$110,out!$BR$113,out!$BR$115:$BR$116,out!$BR$119)</c15:sqref>
+                          <c15:sqref>(out!$BQ$106:$BQ$108,out!$BQ$121)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
-                        <c:v>0</c:v>
+                        <c:v>6.9795426999999993E-2</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0.127835052</c:v>
+                        <c:v>0.23225030099999999</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>6.5979381000000004E-2</c:v>
+                        <c:v>0.151624549</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>8.2474230000000003E-3</c:v>
+                        <c:v>4.6931408000000001E-2</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3359,7 +3380,7 @@
                 <c:order val="26"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>out!$BS$105</c15:sqref>
@@ -3395,26 +3416,23 @@
                           <c15:sqref>out!$AR$106:$AR$124</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(out!$AR$110,out!$AR$113,out!$AR$115:$AR$116,out!$AR$119)</c15:sqref>
+                          <c15:sqref>(out!$AR$106:$AR$108,out!$AR$121)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
-                        <c:v>failsignrenew</c:v>
+                        <c:v>nonpayment</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>ownermovein</c:v>
+                        <c:v>breach</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>capitalimprovement</c:v>
+                        <c:v>nuisance</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>substantialrehab</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>roommatesameunit</c:v>
+                        <c:v>latepay</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -3427,27 +3445,24 @@
                           <c15:sqref>out!$BS$106:$BS$124</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(out!$BS$110,out!$BS$113,out!$BS$115:$BS$116,out!$BS$119)</c15:sqref>
+                          <c15:sqref>(out!$BS$106:$BS$108,out!$BS$121)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
-                        <c:v>5.6818179999999999E-3</c:v>
+                        <c:v>9.0909090999999997E-2</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0.16477272700000001</c:v>
+                        <c:v>0.22727272700000001</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>5.6818179999999999E-3</c:v>
+                        <c:v>0.17045454500000001</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>3.9772727000000001E-2</c:v>
+                        <c:v>8.5227273000000006E-2</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3460,7 +3475,7 @@
                 <c:order val="27"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>out!$BT$105</c15:sqref>
@@ -3496,26 +3511,23 @@
                           <c15:sqref>out!$AR$106:$AR$124</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(out!$AR$110,out!$AR$113,out!$AR$115:$AR$116,out!$AR$119)</c15:sqref>
+                          <c15:sqref>(out!$AR$106:$AR$108,out!$AR$121)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
-                        <c:v>failsignrenew</c:v>
+                        <c:v>nonpayment</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>ownermovein</c:v>
+                        <c:v>breach</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>capitalimprovement</c:v>
+                        <c:v>nuisance</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>substantialrehab</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>roommatesameunit</c:v>
+                        <c:v>latepay</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -3528,229 +3540,24 @@
                           <c15:sqref>out!$BT$106:$BT$124</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(out!$BT$110,out!$BT$113,out!$BT$115:$BT$116,out!$BT$119)</c15:sqref>
+                          <c15:sqref>(out!$BT$106:$BT$108,out!$BT$121)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
-                        <c:v>4.6511629999999998E-3</c:v>
+                        <c:v>5.5813952999999999E-2</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0.31627907</c:v>
+                        <c:v>0.14418604700000001</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>3.7209302E-2</c:v>
+                        <c:v>0.111627907</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>4.6511627999999999E-2</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="28"/>
-                <c:order val="28"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>out!$BU$105</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Presidio Heights</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent5">
-                      <a:lumMod val="60000"/>
-                      <a:lumOff val="40000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>out!$AR$106:$AR$124</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>(out!$AR$110,out!$AR$113,out!$AR$115:$AR$116,out!$AR$119)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>failsignrenew</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>ownermovein</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>capitalimprovement</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>substantialrehab</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>roommatesameunit</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>out!$BU$106:$BU$124</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>(out!$BU$110,out!$BU$113,out!$BU$115:$BU$116,out!$BU$119)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>5.9171600000000003E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0.201183432</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>1.7751479000000001E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>1.1834320000000001E-2</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="29"/>
-                <c:order val="29"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>out!$BV$105</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Russian Hill</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="60000"/>
-                      <a:lumOff val="40000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>out!$AR$106:$AR$124</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>(out!$AR$110,out!$AR$113,out!$AR$115:$AR$116,out!$AR$119)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>failsignrenew</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>ownermovein</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>capitalimprovement</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>substantialrehab</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>roommatesameunit</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>out!$BV$106:$BV$124</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>(out!$BV$110,out!$BV$113,out!$BV$115:$BV$116,out!$BV$119)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0.11961722499999999</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>4.5454544999999999E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>1.6746410999999999E-2</c:v>
+                        <c:v>1.8604651E-2</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3763,7 +3570,7 @@
                 <c:order val="30"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>out!$BW$105</c15:sqref>
@@ -3798,26 +3605,23 @@
                           <c15:sqref>out!$AR$106:$AR$124</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(out!$AR$110,out!$AR$113,out!$AR$115:$AR$116,out!$AR$119)</c15:sqref>
+                          <c15:sqref>(out!$AR$106:$AR$108,out!$AR$121)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
-                        <c:v>failsignrenew</c:v>
+                        <c:v>nonpayment</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>ownermovein</c:v>
+                        <c:v>breach</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>capitalimprovement</c:v>
+                        <c:v>nuisance</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>substantialrehab</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>roommatesameunit</c:v>
+                        <c:v>latepay</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -3830,26 +3634,23 @@
                           <c15:sqref>out!$BW$106:$BW$124</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(out!$BW$110,out!$BW$113,out!$BW$115:$BW$116,out!$BW$119)</c15:sqref>
+                          <c15:sqref>(out!$BW$106:$BW$108,out!$BW$121)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
-                        <c:v>0</c:v>
+                        <c:v>0.15384615400000001</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0.46153846199999998</c:v>
+                        <c:v>0.23076923099999999</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>0</c:v>
+                        <c:v>7.6923077000000006E-2</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
                         <c:v>0</c:v>
                       </c:pt>
                     </c:numCache>
@@ -3863,7 +3664,7 @@
                 <c:order val="31"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>out!$BX$105</c15:sqref>
@@ -3898,26 +3699,23 @@
                           <c15:sqref>out!$AR$106:$AR$124</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(out!$AR$110,out!$AR$113,out!$AR$115:$AR$116,out!$AR$119)</c15:sqref>
+                          <c15:sqref>(out!$AR$106:$AR$108,out!$AR$121)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
-                        <c:v>failsignrenew</c:v>
+                        <c:v>nonpayment</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>ownermovein</c:v>
+                        <c:v>breach</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>capitalimprovement</c:v>
+                        <c:v>nuisance</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>substantialrehab</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>roommatesameunit</c:v>
+                        <c:v>latepay</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -3930,27 +3728,24 @@
                           <c15:sqref>out!$BX$106:$BX$124</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(out!$BX$110,out!$BX$113,out!$BX$115:$BX$116,out!$BX$119)</c15:sqref>
+                          <c15:sqref>(out!$BX$106:$BX$108,out!$BX$121)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
-                        <c:v>0</c:v>
+                        <c:v>4.8167539000000002E-2</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>1.3612565E-2</c:v>
+                        <c:v>0.18638743499999999</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1.0471204E-2</c:v>
+                        <c:v>0.21256544499999999</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>3.1413610000000001E-3</c:v>
+                        <c:v>1.5706806E-2</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3963,7 +3758,7 @@
                 <c:order val="32"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>out!$BY$105</c15:sqref>
@@ -3998,26 +3793,23 @@
                           <c15:sqref>out!$AR$106:$AR$124</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(out!$AR$110,out!$AR$113,out!$AR$115:$AR$116,out!$AR$119)</c15:sqref>
+                          <c15:sqref>(out!$AR$106:$AR$108,out!$AR$121)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
-                        <c:v>failsignrenew</c:v>
+                        <c:v>nonpayment</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>ownermovein</c:v>
+                        <c:v>breach</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>capitalimprovement</c:v>
+                        <c:v>nuisance</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>substantialrehab</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>roommatesameunit</c:v>
+                        <c:v>latepay</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -4030,27 +3822,24 @@
                           <c15:sqref>out!$BY$106:$BY$124</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(out!$BY$110,out!$BY$113,out!$BY$115:$BY$116,out!$BY$119)</c15:sqref>
+                          <c15:sqref>(out!$BY$106:$BY$108,out!$BY$121)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
-                        <c:v>0</c:v>
+                        <c:v>4.2708333000000001E-2</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0.235416667</c:v>
+                        <c:v>0.20104166700000001</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1.2500000000000001E-2</c:v>
+                        <c:v>0.172916667</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>1.041667E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>2.8125000000000001E-2</c:v>
+                        <c:v>5.2083333000000002E-2</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4063,7 +3852,7 @@
                 <c:order val="33"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>out!$BZ$105</c15:sqref>
@@ -4098,26 +3887,23 @@
                           <c15:sqref>out!$AR$106:$AR$124</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(out!$AR$110,out!$AR$113,out!$AR$115:$AR$116,out!$AR$119)</c15:sqref>
+                          <c15:sqref>(out!$AR$106:$AR$108,out!$AR$121)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
-                        <c:v>failsignrenew</c:v>
+                        <c:v>nonpayment</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>ownermovein</c:v>
+                        <c:v>breach</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>capitalimprovement</c:v>
+                        <c:v>nuisance</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>substantialrehab</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>roommatesameunit</c:v>
+                        <c:v>latepay</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -4130,27 +3916,24 @@
                           <c15:sqref>out!$BZ$106:$BZ$124</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(out!$BZ$110,out!$BZ$113,out!$BZ$115:$BZ$116,out!$BZ$119)</c15:sqref>
+                          <c15:sqref>(out!$BZ$106:$BZ$108,out!$BZ$121)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
-                        <c:v>4.4052859999999996E-3</c:v>
+                        <c:v>3.0837004000000001E-2</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0</c:v>
+                        <c:v>0.36651982399999999</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1.6740088E-2</c:v>
+                        <c:v>0.492511013</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>8.8105699999999998E-4</c:v>
+                        <c:v>1.4977974E-2</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4163,7 +3946,7 @@
                 <c:order val="34"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>out!$CA$105</c15:sqref>
@@ -4198,26 +3981,23 @@
                           <c15:sqref>out!$AR$106:$AR$124</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(out!$AR$110,out!$AR$113,out!$AR$115:$AR$116,out!$AR$119)</c15:sqref>
+                          <c15:sqref>(out!$AR$106:$AR$108,out!$AR$121)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
-                        <c:v>failsignrenew</c:v>
+                        <c:v>nonpayment</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>ownermovein</c:v>
+                        <c:v>breach</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>capitalimprovement</c:v>
+                        <c:v>nuisance</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>substantialrehab</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>roommatesameunit</c:v>
+                        <c:v>latepay</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -4230,27 +4010,24 @@
                           <c15:sqref>out!$CA$106:$CA$124</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(out!$CA$110,out!$CA$113,out!$CA$115:$CA$116,out!$CA$119)</c15:sqref>
+                          <c15:sqref>(out!$CA$106:$CA$108,out!$CA$121)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
-                        <c:v>0</c:v>
+                        <c:v>0.02</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0</c:v>
+                        <c:v>0.44</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>0</c:v>
+                        <c:v>0.32</c:v>
                       </c:pt>
                       <c:pt idx="3">
                         <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>0.08</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4263,7 +4040,7 @@
                 <c:order val="35"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>out!$CB$105</c15:sqref>
@@ -4298,26 +4075,23 @@
                           <c15:sqref>out!$AR$106:$AR$124</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(out!$AR$110,out!$AR$113,out!$AR$115:$AR$116,out!$AR$119)</c15:sqref>
+                          <c15:sqref>(out!$AR$106:$AR$108,out!$AR$121)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
-                        <c:v>failsignrenew</c:v>
+                        <c:v>nonpayment</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>ownermovein</c:v>
+                        <c:v>breach</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>capitalimprovement</c:v>
+                        <c:v>nuisance</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>substantialrehab</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>roommatesameunit</c:v>
+                        <c:v>latepay</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -4330,27 +4104,24 @@
                           <c15:sqref>out!$CB$106:$CB$124</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(out!$CB$110,out!$CB$113,out!$CB$115:$CB$116,out!$CB$119)</c15:sqref>
+                          <c15:sqref>(out!$CB$106:$CB$108,out!$CB$121)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
-                        <c:v>0</c:v>
+                        <c:v>6.9767441999999999E-2</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0.12209302299999999</c:v>
+                        <c:v>0.21511627899999999</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>5.2325581000000003E-2</c:v>
+                        <c:v>0.21511627899999999</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>2.3255814E-2</c:v>
+                        <c:v>4.6511627999999999E-2</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4363,7 +4134,7 @@
                 <c:order val="36"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>out!$CC$105</c15:sqref>
@@ -4399,26 +4170,23 @@
                           <c15:sqref>out!$AR$106:$AR$124</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(out!$AR$110,out!$AR$113,out!$AR$115:$AR$116,out!$AR$119)</c15:sqref>
+                          <c15:sqref>(out!$AR$106:$AR$108,out!$AR$121)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
-                        <c:v>failsignrenew</c:v>
+                        <c:v>nonpayment</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>ownermovein</c:v>
+                        <c:v>breach</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>capitalimprovement</c:v>
+                        <c:v>nuisance</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>substantialrehab</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>roommatesameunit</c:v>
+                        <c:v>latepay</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -4431,27 +4199,24 @@
                           <c15:sqref>out!$CC$106:$CC$124</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(out!$CC$110,out!$CC$113,out!$CC$115:$CC$116,out!$CC$119)</c15:sqref>
+                          <c15:sqref>(out!$CC$106:$CC$108,out!$CC$121)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
-                        <c:v>0</c:v>
+                        <c:v>0.207100592</c:v>
                       </c:pt>
                       <c:pt idx="1">
+                        <c:v>0.27218934900000002</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
                         <c:v>0.124260355</c:v>
                       </c:pt>
-                      <c:pt idx="2">
-                        <c:v>1.1834320000000001E-2</c:v>
-                      </c:pt>
                       <c:pt idx="3">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>7.1005917000000002E-2</c:v>
+                        <c:v>4.7337278000000003E-2</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4464,7 +4229,7 @@
                 <c:order val="37"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>out!$CD$105</c15:sqref>
@@ -4500,26 +4265,23 @@
                           <c15:sqref>out!$AR$106:$AR$124</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(out!$AR$110,out!$AR$113,out!$AR$115:$AR$116,out!$AR$119)</c15:sqref>
+                          <c15:sqref>(out!$AR$106:$AR$108,out!$AR$121)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
-                        <c:v>failsignrenew</c:v>
+                        <c:v>nonpayment</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>ownermovein</c:v>
+                        <c:v>breach</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>capitalimprovement</c:v>
+                        <c:v>nuisance</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>substantialrehab</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>roommatesameunit</c:v>
+                        <c:v>latepay</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -4532,27 +4294,24 @@
                           <c15:sqref>out!$CD$106:$CD$124</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(out!$CD$110,out!$CD$113,out!$CD$115:$CD$116,out!$CD$119)</c15:sqref>
+                          <c15:sqref>(out!$CD$106:$CD$108,out!$CD$121)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
-                        <c:v>3.4843209999999999E-3</c:v>
+                        <c:v>8.7108013999999998E-2</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0.27874564499999999</c:v>
+                        <c:v>0.18118466899999999</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>3.4843209999999999E-3</c:v>
+                        <c:v>0.14982578399999999</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>3.4843209999999999E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>9.0592333999999997E-2</c:v>
+                        <c:v>4.8780487999999997E-2</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4565,7 +4324,7 @@
                 <c:order val="38"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>out!$CE$105</c15:sqref>
@@ -4601,26 +4360,23 @@
                           <c15:sqref>out!$AR$106:$AR$124</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(out!$AR$110,out!$AR$113,out!$AR$115:$AR$116,out!$AR$119)</c15:sqref>
+                          <c15:sqref>(out!$AR$106:$AR$108,out!$AR$121)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
-                        <c:v>failsignrenew</c:v>
+                        <c:v>nonpayment</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>ownermovein</c:v>
+                        <c:v>breach</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>capitalimprovement</c:v>
+                        <c:v>nuisance</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>substantialrehab</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>roommatesameunit</c:v>
+                        <c:v>latepay</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -4633,26 +4389,23 @@
                           <c15:sqref>out!$CE$106:$CE$124</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(out!$CE$110,out!$CE$113,out!$CE$115:$CE$116,out!$CE$119)</c15:sqref>
+                          <c15:sqref>(out!$CE$106:$CE$108,out!$CE$121)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
-                        <c:v>1.4184397E-2</c:v>
+                        <c:v>2.8368793999999999E-2</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>9.9290779999999995E-2</c:v>
+                        <c:v>0.283687943</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>3.9007092E-2</c:v>
+                        <c:v>0.312056738</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
                         <c:v>2.4822694999999999E-2</c:v>
                       </c:pt>
                     </c:numCache>
@@ -4664,7 +4417,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="231729680"/>
+        <c:axId val="173611280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4707,7 +4460,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="231730240"/>
+        <c:crossAx val="173611840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4715,7 +4468,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="231730240"/>
+        <c:axId val="173611840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4766,7 +4519,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="231729680"/>
+        <c:crossAx val="173611280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5396,16 +5149,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>127</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>62</xdr:col>
-      <xdr:colOff>600076</xdr:colOff>
-      <xdr:row>164</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5692,8 +5445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CF125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI127" workbookViewId="0">
-      <selection activeCell="BI132" sqref="BI132"/>
+    <sheetView tabSelected="1" topLeftCell="AI128" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BK157" sqref="BK157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
